--- a/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
+++ b/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Library/Mobile Documents/com~apple~CloudDocs/_ETML/Pratiques/P_Script-122/CdC-2023-2024/New/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethschafsta\Documents\GitHub\P-Script_Get-EventLog\Doc\JNLTRAV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3FBEE6-F745-DC4B-9402-B0644DA40261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Journal de travail'!$A$5:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -100,11 +99,14 @@
   <si>
     <t>Mise en place du repo Git et de la structure du projet</t>
   </si>
+  <si>
+    <t>Préparation, clonage des VMs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd/mm/yyyy;@"/>
   </numFmts>
@@ -234,6 +236,54 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -277,54 +327,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -339,20 +341,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A5:F531">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
+    <tableColumn id="1" name="Semaine" dataDxfId="5">
+      <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -542,31 +546,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF2E8F1-C793-7E43-B3DE-C075053A97DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="72.1640625" customWidth="1"/>
+    <col min="6" max="6" width="72.125" customWidth="1"/>
     <col min="10" max="10" width="7.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
@@ -576,7 +580,7 @@
       </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
@@ -606,13 +610,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -624,7 +628,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -644,9 +648,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <f>_xlfn.ISOWEEKNUM(B6)</f>
+        <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
       </c>
       <c r="B6" s="9">
@@ -663,3687 +667,5783 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>47</v>
+      </c>
       <c r="B7" s="9">
         <v>45251</v>
       </c>
       <c r="C7" s="10">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="str">
+        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="str">
+        <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="str">
+        <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="str">
+        <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="str">
+        <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="str">
+        <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="str">
+        <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="str">
+        <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="str">
+        <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="str">
+        <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="str">
+        <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="str">
+        <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="str">
+        <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="str">
+        <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
+        <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="str">
+        <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="str">
+        <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="str">
+        <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
+        <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="str">
+        <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
+        <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="str">
+        <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="str">
+        <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="str">
+        <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="str">
+        <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="str">
+        <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="str">
+        <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="str">
+        <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="str">
+        <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="str">
+        <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="str">
+        <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="str">
+        <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="str">
+        <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="str">
+        <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="str">
+        <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="str">
+        <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="str">
+        <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="str">
+        <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="str">
+        <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="str">
+        <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="str">
+        <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="str">
+        <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="str">
+        <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="str">
+        <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="str">
+        <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="str">
+        <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="str">
+        <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="str">
+        <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="str">
+        <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="str">
+        <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="str">
+        <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="str">
+        <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="str">
+        <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="str">
+        <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="str">
+        <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="str">
+        <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="str">
+        <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="str">
+        <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B67" s="9"/>
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="str">
+        <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="str">
+        <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B69" s="9"/>
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="str">
+        <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="str">
+        <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="str">
+        <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B72" s="9"/>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="str">
+        <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="str">
+        <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="str">
+        <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="str">
+        <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="str">
+        <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="str">
+        <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="str">
+        <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="str">
+        <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="str">
+        <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="str">
+        <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="str">
+        <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B83" s="9"/>
       <c r="C83" s="10"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="str">
+        <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="str">
+        <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="str">
+        <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="str">
+        <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="str">
+        <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="str">
+        <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B89" s="9"/>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="str">
+        <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="str">
+        <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="str">
+        <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="str">
+        <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="str">
+        <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="str">
+        <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="str">
+        <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="str">
+        <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B97" s="9"/>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="str">
+        <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B98" s="9"/>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="str">
+        <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B99" s="9"/>
       <c r="C99" s="10"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="str">
+        <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B100" s="9"/>
       <c r="C100" s="10"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="str">
+        <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="str">
+        <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="str">
+        <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B103" s="9"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="str">
+        <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="str">
+        <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="str">
+        <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="str">
+        <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B107" s="9"/>
       <c r="C107" s="10"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="str">
+        <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="str">
+        <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="str">
+        <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="str">
+        <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="str">
+        <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="str">
+        <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="str">
+        <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B114" s="9"/>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="str">
+        <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="str">
+        <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="str">
+        <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="str">
+        <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="str">
+        <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B119" s="9"/>
       <c r="C119" s="10"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="str">
+        <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B120" s="9"/>
       <c r="C120" s="10"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="str">
+        <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B121" s="9"/>
       <c r="C121" s="10"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="str">
+        <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B122" s="9"/>
       <c r="C122" s="10"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="str">
+        <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B123" s="9"/>
       <c r="C123" s="10"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="str">
+        <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="str">
+        <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="str">
+        <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="str">
+        <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B127" s="9"/>
       <c r="C127" s="10"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="str">
+        <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="str">
+        <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B129" s="9"/>
       <c r="C129" s="10"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="str">
+        <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B130" s="9"/>
       <c r="C130" s="10"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="str">
+        <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B131" s="9"/>
       <c r="C131" s="10"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="str">
+        <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="str">
+        <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B133" s="9"/>
       <c r="C133" s="10"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="str">
+        <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="str">
+        <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B135" s="9"/>
       <c r="C135" s="10"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="str">
+        <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="str">
+        <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="str">
+        <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="str">
+        <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="str">
+        <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="str">
+        <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="str">
+        <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B142" s="9"/>
       <c r="C142" s="10"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="str">
+        <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="str">
+        <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="str">
+        <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="str">
+        <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B146" s="9"/>
       <c r="C146" s="10"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="str">
+        <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="str">
+        <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="str">
+        <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="str">
+        <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="str">
+        <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B151" s="9"/>
       <c r="C151" s="10"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="str">
+        <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B152" s="9"/>
       <c r="C152" s="10"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="str">
+        <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B153" s="9"/>
       <c r="C153" s="10"/>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="str">
+        <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B154" s="9"/>
       <c r="C154" s="10"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="str">
+        <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="str">
+        <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="str">
+        <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B157" s="9"/>
       <c r="C157" s="10"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="str">
+        <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="15" t="str">
+        <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="str">
+        <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="str">
+        <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B161" s="9"/>
       <c r="C161" s="10"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="str">
+        <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="str">
+        <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="str">
+        <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B164" s="9"/>
       <c r="C164" s="10"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="str">
+        <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="str">
+        <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="str">
+        <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="str">
+        <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B168" s="9"/>
       <c r="C168" s="10"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="15" t="str">
+        <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="str">
+        <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="15" t="str">
+        <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="15" t="str">
+        <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="str">
+        <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B173" s="9"/>
       <c r="C173" s="10"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="15" t="str">
+        <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B174" s="9"/>
       <c r="C174" s="10"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="str">
+        <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B175" s="9"/>
       <c r="C175" s="10"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="15" t="str">
+        <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B176" s="9"/>
       <c r="C176" s="10"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="15" t="str">
+        <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B177" s="9"/>
       <c r="C177" s="10"/>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="str">
+        <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="15" t="str">
+        <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B179" s="9"/>
       <c r="C179" s="10"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="15" t="str">
+        <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="str">
+        <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="15" t="str">
+        <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="15" t="str">
+        <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B183" s="9"/>
       <c r="C183" s="10"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="15" t="str">
+        <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="str">
+        <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="15" t="str">
+        <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B186" s="9"/>
       <c r="C186" s="10"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="str">
+        <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="str">
+        <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="15" t="str">
+        <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="15" t="str">
+        <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B190" s="9"/>
       <c r="C190" s="10"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="15" t="str">
+        <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="15" t="str">
+        <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="str">
+        <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="15" t="str">
+        <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="15" t="str">
+        <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B195" s="9"/>
       <c r="C195" s="10"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="15" t="str">
+        <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B196" s="9"/>
       <c r="C196" s="10"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="15" t="str">
+        <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B197" s="9"/>
       <c r="C197" s="10"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="15" t="str">
+        <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B198" s="9"/>
       <c r="C198" s="10"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="15" t="str">
+        <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B199" s="9"/>
       <c r="C199" s="10"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="str">
+        <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="str">
+        <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B201" s="9"/>
       <c r="C201" s="10"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="15" t="str">
+        <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="15" t="str">
+        <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="15" t="str">
+        <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="str">
+        <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="15" t="str">
+        <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="str">
+        <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="15" t="str">
+        <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B208" s="9"/>
       <c r="C208" s="10"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="str">
+        <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="15" t="str">
+        <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="15" t="str">
+        <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="15" t="str">
+        <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="str">
+        <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="str">
+        <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="str">
+        <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="str">
+        <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="str">
+        <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B217" s="9"/>
       <c r="C217" s="10"/>
       <c r="D217" s="11"/>
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="15" t="str">
+        <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B218" s="9"/>
       <c r="C218" s="10"/>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="str">
+        <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B219" s="9"/>
       <c r="C219" s="10"/>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="15" t="str">
+        <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B220" s="9"/>
       <c r="C220" s="10"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="str">
+        <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B221" s="9"/>
       <c r="C221" s="10"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="str">
+        <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="str">
+        <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B223" s="9"/>
       <c r="C223" s="10"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="15" t="str">
+        <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="str">
+        <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="str">
+        <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="str">
+        <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B227" s="9"/>
       <c r="C227" s="10"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="str">
+        <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="str">
+        <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="str">
+        <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B230" s="9"/>
       <c r="C230" s="10"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="15" t="str">
+        <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="str">
+        <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="15" t="str">
+        <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="15" t="str">
+        <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B234" s="9"/>
       <c r="C234" s="10"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="15" t="str">
+        <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="15" t="str">
+        <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="15" t="str">
+        <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="15" t="str">
+        <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="15" t="str">
+        <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B239" s="9"/>
       <c r="C239" s="10"/>
       <c r="D239" s="11"/>
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="15" t="str">
+        <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B240" s="9"/>
       <c r="C240" s="10"/>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="15" t="str">
+        <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B241" s="9"/>
       <c r="C241" s="10"/>
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="15" t="str">
+        <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B242" s="9"/>
       <c r="C242" s="10"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="15" t="str">
+        <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B243" s="9"/>
       <c r="C243" s="10"/>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="15" t="str">
+        <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="str">
+        <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B245" s="9"/>
       <c r="C245" s="10"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="15" t="str">
+        <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="15" t="str">
+        <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="15" t="str">
+        <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="15" t="str">
+        <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B249" s="9"/>
       <c r="C249" s="10"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="15" t="str">
+        <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="15" t="str">
+        <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="15" t="str">
+        <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B252" s="9"/>
       <c r="C252" s="10"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="15" t="str">
+        <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="15" t="str">
+        <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="15" t="str">
+        <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="15" t="str">
+        <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B256" s="9"/>
       <c r="C256" s="10"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="15" t="str">
+        <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="15" t="str">
+        <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="15" t="str">
+        <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="15" t="str">
+        <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="15" t="str">
+        <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B261" s="9"/>
       <c r="C261" s="10"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="15" t="str">
+        <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B262" s="9"/>
       <c r="C262" s="10"/>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="15" t="str">
+        <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B263" s="9"/>
       <c r="C263" s="10"/>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="15" t="str">
+        <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B264" s="9"/>
       <c r="C264" s="10"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="15" t="str">
+        <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B265" s="9"/>
       <c r="C265" s="10"/>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="15" t="str">
+        <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="15" t="str">
+        <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B267" s="9"/>
       <c r="C267" s="10"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="15" t="str">
+        <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="15" t="str">
+        <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="15" t="str">
+        <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="15" t="str">
+        <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B271" s="9"/>
       <c r="C271" s="10"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="15" t="str">
+        <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="15" t="str">
+        <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="15" t="str">
+        <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B274" s="9"/>
       <c r="C274" s="10"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="15" t="str">
+        <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="15" t="str">
+        <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="15" t="str">
+        <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="15" t="str">
+        <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B278" s="9"/>
       <c r="C278" s="10"/>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="15" t="str">
+        <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="str">
+        <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="15" t="str">
+        <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="15" t="str">
+        <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="15" t="str">
+        <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B283" s="9"/>
       <c r="C283" s="10"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="15" t="str">
+        <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B284" s="9"/>
       <c r="C284" s="10"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="15" t="str">
+        <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B285" s="9"/>
       <c r="C285" s="10"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="15" t="str">
+        <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B286" s="9"/>
       <c r="C286" s="10"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="15" t="str">
+        <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="15" t="str">
+        <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="15" t="str">
+        <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B289" s="9"/>
       <c r="C289" s="10"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="15" t="str">
+        <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="15" t="str">
+        <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="15" t="str">
+        <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="15" t="str">
+        <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B293" s="9"/>
       <c r="C293" s="10"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="15" t="str">
+        <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="15" t="str">
+        <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="15" t="str">
+        <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B296" s="9"/>
       <c r="C296" s="10"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="15" t="str">
+        <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="15" t="str">
+        <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="15" t="str">
+        <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="15" t="str">
+        <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B300" s="9"/>
       <c r="C300" s="10"/>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="15" t="str">
+        <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="15" t="str">
+        <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="15" t="str">
+        <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="15" t="str">
+        <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="15" t="str">
+        <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B305" s="9"/>
       <c r="C305" s="10"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="15" t="str">
+        <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B306" s="9"/>
       <c r="C306" s="10"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="15" t="str">
+        <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B307" s="9"/>
       <c r="C307" s="10"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="15" t="str">
+        <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B308" s="9"/>
       <c r="C308" s="10"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="15" t="str">
+        <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B309" s="9"/>
       <c r="C309" s="10"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="15" t="str">
+        <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="15" t="str">
+        <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B311" s="9"/>
       <c r="C311" s="10"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="15" t="str">
+        <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="15" t="str">
+        <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="15" t="str">
+        <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="15" t="str">
+        <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B315" s="9"/>
       <c r="C315" s="10"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="15" t="str">
+        <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="15" t="str">
+        <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="15" t="str">
+        <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B318" s="9"/>
       <c r="C318" s="10"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="15" t="str">
+        <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="15" t="str">
+        <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="15" t="str">
+        <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="15" t="str">
+        <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B322" s="9"/>
       <c r="C322" s="10"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="15" t="str">
+        <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="11"/>
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="15" t="str">
+        <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="15" t="str">
+        <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="11"/>
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="15" t="str">
+        <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="11"/>
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="15" t="str">
+        <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B327" s="9"/>
       <c r="C327" s="10"/>
       <c r="D327" s="11"/>
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="15" t="str">
+        <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B328" s="9"/>
       <c r="C328" s="10"/>
       <c r="D328" s="11"/>
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="15" t="str">
+        <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B329" s="9"/>
       <c r="C329" s="10"/>
       <c r="D329" s="11"/>
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="15" t="str">
+        <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B330" s="9"/>
       <c r="C330" s="10"/>
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="15" t="str">
+        <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B331" s="9"/>
       <c r="C331" s="10"/>
       <c r="D331" s="11"/>
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="15" t="str">
+        <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="15" t="str">
+        <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B333" s="9"/>
       <c r="C333" s="10"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="15" t="str">
+        <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="11"/>
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="15" t="str">
+        <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="15" t="str">
+        <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="15" t="str">
+        <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B337" s="9"/>
       <c r="C337" s="10"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="15" t="str">
+        <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="15" t="str">
+        <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="15" t="str">
+        <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B340" s="9"/>
       <c r="C340" s="10"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="15" t="str">
+        <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="15" t="str">
+        <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="15" t="str">
+        <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="11"/>
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="15" t="str">
+        <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B344" s="9"/>
       <c r="C344" s="10"/>
       <c r="D344" s="11"/>
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="15" t="str">
+        <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="11"/>
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="15" t="str">
+        <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="11"/>
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="15" t="str">
+        <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="11"/>
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="15" t="str">
+        <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="11"/>
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="15" t="str">
+        <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B349" s="9"/>
       <c r="C349" s="10"/>
       <c r="D349" s="11"/>
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="15" t="str">
+        <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B350" s="9"/>
       <c r="C350" s="10"/>
       <c r="D350" s="11"/>
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="15" t="str">
+        <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B351" s="9"/>
       <c r="C351" s="10"/>
       <c r="D351" s="11"/>
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="15" t="str">
+        <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B352" s="9"/>
       <c r="C352" s="10"/>
       <c r="D352" s="11"/>
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="15" t="str">
+        <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
       <c r="D353" s="11"/>
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="15" t="str">
+        <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="15" t="str">
+        <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B355" s="9"/>
       <c r="C355" s="10"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="15" t="str">
+        <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="11"/>
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="15" t="str">
+        <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="15" t="str">
+        <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="15" t="str">
+        <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="15" t="str">
+        <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="15" t="str">
+        <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="15" t="str">
+        <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B362" s="9"/>
       <c r="C362" s="10"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="15" t="str">
+        <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="11"/>
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="15" t="str">
+        <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="15" t="str">
+        <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="11"/>
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="15" t="str">
+        <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="15" t="str">
+        <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="15" t="str">
+        <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="11"/>
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="15" t="str">
+        <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="11"/>
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="15" t="str">
+        <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="11"/>
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="15" t="str">
+        <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B371" s="9"/>
       <c r="C371" s="10"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="15" t="str">
+        <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B372" s="9"/>
       <c r="C372" s="10"/>
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="15" t="str">
+        <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B373" s="9"/>
       <c r="C373" s="10"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="15" t="str">
+        <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B374" s="9"/>
       <c r="C374" s="10"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="15" t="str">
+        <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B375" s="9"/>
       <c r="C375" s="10"/>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="15" t="str">
+        <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B376" s="9"/>
       <c r="C376" s="10"/>
       <c r="D376" s="11"/>
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="15" t="str">
+        <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B377" s="9"/>
       <c r="C377" s="10"/>
       <c r="D377" s="11"/>
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="15" t="str">
+        <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B378" s="9"/>
       <c r="C378" s="10"/>
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="15" t="str">
+        <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B379" s="9"/>
       <c r="C379" s="10"/>
       <c r="D379" s="11"/>
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="15" t="str">
+        <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B380" s="9"/>
       <c r="C380" s="10"/>
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="15" t="str">
+        <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B381" s="9"/>
       <c r="C381" s="10"/>
       <c r="D381" s="11"/>
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="15" t="str">
+        <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B382" s="9"/>
       <c r="C382" s="10"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="15" t="str">
+        <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B383" s="9"/>
       <c r="C383" s="10"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="15" t="str">
+        <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B384" s="9"/>
       <c r="C384" s="10"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="15" t="str">
+        <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B385" s="9"/>
       <c r="C385" s="10"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="15" t="str">
+        <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B386" s="9"/>
       <c r="C386" s="10"/>
       <c r="D386" s="11"/>
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="15" t="str">
+        <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B387" s="9"/>
       <c r="C387" s="10"/>
       <c r="D387" s="11"/>
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="15" t="str">
+        <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B388" s="9"/>
       <c r="C388" s="10"/>
       <c r="D388" s="11"/>
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="15" t="str">
+        <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B389" s="9"/>
       <c r="C389" s="10"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="15" t="str">
+        <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B390" s="9"/>
       <c r="C390" s="10"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="15" t="str">
+        <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B391" s="9"/>
       <c r="C391" s="10"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="15" t="str">
+        <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B392" s="9"/>
       <c r="C392" s="10"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="15" t="str">
+        <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B393" s="9"/>
       <c r="C393" s="10"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="15" t="str">
+        <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B394" s="9"/>
       <c r="C394" s="10"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="15" t="str">
+        <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B395" s="9"/>
       <c r="C395" s="10"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="15" t="str">
+        <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B396" s="9"/>
       <c r="C396" s="10"/>
       <c r="D396" s="11"/>
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="15" t="str">
+        <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B397" s="9"/>
       <c r="C397" s="10"/>
       <c r="D397" s="11"/>
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="15" t="str">
+        <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B398" s="9"/>
       <c r="C398" s="10"/>
       <c r="D398" s="11"/>
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="15" t="str">
+        <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B399" s="9"/>
       <c r="C399" s="10"/>
       <c r="D399" s="11"/>
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="15" t="str">
+        <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B400" s="9"/>
       <c r="C400" s="10"/>
       <c r="D400" s="11"/>
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="15" t="str">
+        <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B401" s="9"/>
       <c r="C401" s="10"/>
       <c r="D401" s="11"/>
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="15" t="str">
+        <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B402" s="9"/>
       <c r="C402" s="10"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="15" t="str">
+        <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B403" s="9"/>
       <c r="C403" s="10"/>
       <c r="D403" s="11"/>
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="15" t="str">
+        <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B404" s="9"/>
       <c r="C404" s="10"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="15" t="str">
+        <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B405" s="9"/>
       <c r="C405" s="10"/>
       <c r="D405" s="11"/>
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="15" t="str">
+        <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B406" s="9"/>
       <c r="C406" s="10"/>
       <c r="D406" s="11"/>
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="15" t="str">
+        <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B407" s="9"/>
       <c r="C407" s="10"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="15" t="str">
+        <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B408" s="9"/>
       <c r="C408" s="10"/>
       <c r="D408" s="11"/>
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="15" t="str">
+        <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B409" s="9"/>
       <c r="C409" s="10"/>
       <c r="D409" s="11"/>
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="15" t="str">
+        <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B410" s="9"/>
       <c r="C410" s="10"/>
       <c r="D410" s="11"/>
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="15" t="str">
+        <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B411" s="9"/>
       <c r="C411" s="10"/>
       <c r="D411" s="11"/>
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="15" t="str">
+        <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B412" s="9"/>
       <c r="C412" s="10"/>
       <c r="D412" s="11"/>
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="15" t="str">
+        <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B413" s="9"/>
       <c r="C413" s="10"/>
       <c r="D413" s="11"/>
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="15" t="str">
+        <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B414" s="9"/>
       <c r="C414" s="10"/>
       <c r="D414" s="11"/>
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="15" t="str">
+        <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B415" s="9"/>
       <c r="C415" s="10"/>
       <c r="D415" s="11"/>
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="15" t="str">
+        <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B416" s="9"/>
       <c r="C416" s="10"/>
       <c r="D416" s="11"/>
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="15" t="str">
+        <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B417" s="9"/>
       <c r="C417" s="10"/>
       <c r="D417" s="11"/>
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="15" t="str">
+        <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B418" s="9"/>
       <c r="C418" s="10"/>
       <c r="D418" s="11"/>
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="15" t="str">
+        <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B419" s="9"/>
       <c r="C419" s="10"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="15" t="str">
+        <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B420" s="9"/>
       <c r="C420" s="10"/>
       <c r="D420" s="11"/>
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="15" t="str">
+        <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B421" s="9"/>
       <c r="C421" s="10"/>
       <c r="D421" s="11"/>
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="15" t="str">
+        <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B422" s="9"/>
       <c r="C422" s="10"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="15" t="str">
+        <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B423" s="9"/>
       <c r="C423" s="10"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="15" t="str">
+        <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B424" s="9"/>
       <c r="C424" s="10"/>
       <c r="D424" s="11"/>
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="15" t="str">
+        <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B425" s="9"/>
       <c r="C425" s="10"/>
       <c r="D425" s="11"/>
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="15" t="str">
+        <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B426" s="9"/>
       <c r="C426" s="10"/>
       <c r="D426" s="11"/>
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="15" t="str">
+        <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B427" s="9"/>
       <c r="C427" s="10"/>
       <c r="D427" s="11"/>
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="15" t="str">
+        <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B428" s="9"/>
       <c r="C428" s="10"/>
       <c r="D428" s="11"/>
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="15" t="str">
+        <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B429" s="9"/>
       <c r="C429" s="10"/>
       <c r="D429" s="11"/>
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="15" t="str">
+        <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B430" s="9"/>
       <c r="C430" s="10"/>
       <c r="D430" s="11"/>
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="15" t="str">
+        <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B431" s="9"/>
       <c r="C431" s="10"/>
       <c r="D431" s="11"/>
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="15" t="str">
+        <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B432" s="9"/>
       <c r="C432" s="10"/>
       <c r="D432" s="11"/>
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="15" t="str">
+        <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B433" s="9"/>
       <c r="C433" s="10"/>
       <c r="D433" s="11"/>
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="15" t="str">
+        <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B434" s="9"/>
       <c r="C434" s="10"/>
       <c r="D434" s="11"/>
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="15" t="str">
+        <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B435" s="9"/>
       <c r="C435" s="10"/>
       <c r="D435" s="11"/>
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="15" t="str">
+        <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B436" s="9"/>
       <c r="C436" s="10"/>
       <c r="D436" s="11"/>
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="15" t="str">
+        <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B437" s="9"/>
       <c r="C437" s="10"/>
       <c r="D437" s="11"/>
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="15" t="str">
+        <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B438" s="9"/>
       <c r="C438" s="10"/>
       <c r="D438" s="11"/>
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="15" t="str">
+        <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B439" s="9"/>
       <c r="C439" s="10"/>
       <c r="D439" s="11"/>
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="15" t="str">
+        <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B440" s="9"/>
       <c r="C440" s="10"/>
       <c r="D440" s="11"/>
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="15" t="str">
+        <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B441" s="9"/>
       <c r="C441" s="10"/>
       <c r="D441" s="11"/>
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="15" t="str">
+        <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B442" s="9"/>
       <c r="C442" s="10"/>
       <c r="D442" s="11"/>
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="15" t="str">
+        <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B443" s="9"/>
       <c r="C443" s="10"/>
       <c r="D443" s="11"/>
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="15" t="str">
+        <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B444" s="9"/>
       <c r="C444" s="10"/>
       <c r="D444" s="11"/>
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="15" t="str">
+        <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B445" s="9"/>
       <c r="C445" s="10"/>
       <c r="D445" s="11"/>
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="15" t="str">
+        <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B446" s="9"/>
       <c r="C446" s="10"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="15" t="str">
+        <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B447" s="9"/>
       <c r="C447" s="10"/>
       <c r="D447" s="11"/>
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="15" t="str">
+        <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B448" s="9"/>
       <c r="C448" s="10"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="15" t="str">
+        <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B449" s="9"/>
       <c r="C449" s="10"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="15" t="str">
+        <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B450" s="9"/>
       <c r="C450" s="10"/>
       <c r="D450" s="11"/>
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="15" t="str">
+        <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B451" s="9"/>
       <c r="C451" s="10"/>
       <c r="D451" s="11"/>
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="15" t="str">
+        <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B452" s="9"/>
       <c r="C452" s="10"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="15" t="str">
+        <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B453" s="9"/>
       <c r="C453" s="10"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="15" t="str">
+        <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B454" s="9"/>
       <c r="C454" s="10"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="15" t="str">
+        <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B455" s="9"/>
       <c r="C455" s="10"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="15" t="str">
+        <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B456" s="9"/>
       <c r="C456" s="10"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="15" t="str">
+        <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B457" s="9"/>
       <c r="C457" s="10"/>
       <c r="D457" s="11"/>
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="15" t="str">
+        <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B458" s="9"/>
       <c r="C458" s="10"/>
       <c r="D458" s="11"/>
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="15" t="str">
+        <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B459" s="9"/>
       <c r="C459" s="10"/>
       <c r="D459" s="11"/>
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="15" t="str">
+        <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B460" s="9"/>
       <c r="C460" s="10"/>
       <c r="D460" s="11"/>
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="15" t="str">
+        <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B461" s="9"/>
       <c r="C461" s="10"/>
       <c r="D461" s="11"/>
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="15" t="str">
+        <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B462" s="9"/>
       <c r="C462" s="10"/>
       <c r="D462" s="11"/>
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="15" t="str">
+        <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B463" s="9"/>
       <c r="C463" s="10"/>
       <c r="D463" s="11"/>
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="15" t="str">
+        <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B464" s="9"/>
       <c r="C464" s="10"/>
       <c r="D464" s="11"/>
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="15" t="str">
+        <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B465" s="9"/>
       <c r="C465" s="10"/>
       <c r="D465" s="11"/>
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="15" t="str">
+        <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B466" s="9"/>
       <c r="C466" s="10"/>
       <c r="D466" s="11"/>
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="15" t="str">
+        <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B467" s="9"/>
       <c r="C467" s="10"/>
       <c r="D467" s="11"/>
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="15" t="str">
+        <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B468" s="9"/>
       <c r="C468" s="10"/>
       <c r="D468" s="11"/>
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="15" t="str">
+        <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B469" s="9"/>
       <c r="C469" s="10"/>
       <c r="D469" s="11"/>
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="15" t="str">
+        <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B470" s="9"/>
       <c r="C470" s="10"/>
       <c r="D470" s="11"/>
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="15" t="str">
+        <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B471" s="9"/>
       <c r="C471" s="10"/>
       <c r="D471" s="11"/>
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="15" t="str">
+        <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B472" s="9"/>
       <c r="C472" s="10"/>
       <c r="D472" s="11"/>
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="15" t="str">
+        <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B473" s="9"/>
       <c r="C473" s="10"/>
       <c r="D473" s="11"/>
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="15" t="str">
+        <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B474" s="9"/>
       <c r="C474" s="10"/>
       <c r="D474" s="11"/>
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="15" t="str">
+        <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B475" s="9"/>
       <c r="C475" s="10"/>
       <c r="D475" s="11"/>
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="15" t="str">
+        <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B476" s="9"/>
       <c r="C476" s="10"/>
       <c r="D476" s="11"/>
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="15" t="str">
+        <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B477" s="9"/>
       <c r="C477" s="10"/>
       <c r="D477" s="11"/>
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="15" t="str">
+        <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B478" s="9"/>
       <c r="C478" s="10"/>
       <c r="D478" s="11"/>
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="15" t="str">
+        <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B479" s="9"/>
       <c r="C479" s="10"/>
       <c r="D479" s="11"/>
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="15" t="str">
+        <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B480" s="9"/>
       <c r="C480" s="10"/>
       <c r="D480" s="11"/>
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="15" t="str">
+        <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B481" s="9"/>
       <c r="C481" s="10"/>
       <c r="D481" s="11"/>
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="15" t="str">
+        <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B482" s="9"/>
       <c r="C482" s="10"/>
       <c r="D482" s="11"/>
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="15" t="str">
+        <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B483" s="9"/>
       <c r="C483" s="10"/>
       <c r="D483" s="11"/>
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="15" t="str">
+        <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B484" s="9"/>
       <c r="C484" s="10"/>
       <c r="D484" s="11"/>
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="15" t="str">
+        <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B485" s="9"/>
       <c r="C485" s="10"/>
       <c r="D485" s="11"/>
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="15" t="str">
+        <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B486" s="9"/>
       <c r="C486" s="10"/>
       <c r="D486" s="11"/>
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="15" t="str">
+        <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B487" s="9"/>
       <c r="C487" s="10"/>
       <c r="D487" s="11"/>
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="15" t="str">
+        <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B488" s="9"/>
       <c r="C488" s="10"/>
       <c r="D488" s="11"/>
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="15" t="str">
+        <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B489" s="9"/>
       <c r="C489" s="10"/>
       <c r="D489" s="11"/>
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="15" t="str">
+        <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B490" s="9"/>
       <c r="C490" s="10"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="15" t="str">
+        <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B491" s="9"/>
       <c r="C491" s="10"/>
       <c r="D491" s="11"/>
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="15" t="str">
+        <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B492" s="9"/>
       <c r="C492" s="10"/>
       <c r="D492" s="11"/>
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="15" t="str">
+        <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B493" s="9"/>
       <c r="C493" s="10"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="15" t="str">
+        <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B494" s="9"/>
       <c r="C494" s="10"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="15" t="str">
+        <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B495" s="9"/>
       <c r="C495" s="10"/>
       <c r="D495" s="11"/>
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="15" t="str">
+        <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B496" s="9"/>
       <c r="C496" s="10"/>
       <c r="D496" s="11"/>
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="15" t="str">
+        <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B497" s="9"/>
       <c r="C497" s="10"/>
       <c r="D497" s="11"/>
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="15" t="str">
+        <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B498" s="9"/>
       <c r="C498" s="10"/>
       <c r="D498" s="11"/>
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="15" t="str">
+        <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B499" s="9"/>
       <c r="C499" s="10"/>
       <c r="D499" s="11"/>
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="15" t="str">
+        <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B500" s="9"/>
       <c r="C500" s="10"/>
       <c r="D500" s="11"/>
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="15" t="str">
+        <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B501" s="9"/>
       <c r="C501" s="10"/>
       <c r="D501" s="11"/>
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="15" t="str">
+        <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B502" s="9"/>
       <c r="C502" s="10"/>
       <c r="D502" s="11"/>
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="15" t="str">
+        <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B503" s="9"/>
       <c r="C503" s="10"/>
       <c r="D503" s="11"/>
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="15" t="str">
+        <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B504" s="9"/>
       <c r="C504" s="10"/>
       <c r="D504" s="11"/>
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="15" t="str">
+        <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B505" s="9"/>
       <c r="C505" s="10"/>
       <c r="D505" s="11"/>
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="15" t="str">
+        <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B506" s="9"/>
       <c r="C506" s="10"/>
       <c r="D506" s="11"/>
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="15" t="str">
+        <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B507" s="9"/>
       <c r="C507" s="10"/>
       <c r="D507" s="11"/>
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="15" t="str">
+        <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B508" s="9"/>
       <c r="C508" s="10"/>
       <c r="D508" s="11"/>
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="15" t="str">
+        <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B509" s="9"/>
       <c r="C509" s="10"/>
       <c r="D509" s="11"/>
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="15" t="str">
+        <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B510" s="9"/>
       <c r="C510" s="10"/>
       <c r="D510" s="11"/>
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="15" t="str">
+        <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B511" s="9"/>
       <c r="C511" s="10"/>
       <c r="D511" s="11"/>
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="15" t="str">
+        <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B512" s="9"/>
       <c r="C512" s="10"/>
       <c r="D512" s="11"/>
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="15" t="str">
+        <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B513" s="9"/>
       <c r="C513" s="10"/>
       <c r="D513" s="11"/>
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="15" t="str">
+        <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B514" s="9"/>
       <c r="C514" s="10"/>
       <c r="D514" s="11"/>
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="15" t="str">
+        <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B515" s="9"/>
       <c r="C515" s="10"/>
       <c r="D515" s="11"/>
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="15" t="str">
+        <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B516" s="9"/>
       <c r="C516" s="10"/>
       <c r="D516" s="11"/>
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="15" t="str">
+        <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B517" s="9"/>
       <c r="C517" s="10"/>
       <c r="D517" s="11"/>
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="15" t="str">
+        <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B518" s="9"/>
       <c r="C518" s="10"/>
       <c r="D518" s="11"/>
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="15" t="str">
+        <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B519" s="9"/>
       <c r="C519" s="10"/>
       <c r="D519" s="11"/>
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="15" t="str">
+        <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B520" s="9"/>
       <c r="C520" s="10"/>
       <c r="D520" s="11"/>
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="15" t="str">
+        <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B521" s="9"/>
       <c r="C521" s="10"/>
       <c r="D521" s="11"/>
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="15" t="str">
+        <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B522" s="9"/>
       <c r="C522" s="10"/>
       <c r="D522" s="11"/>
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="15" t="str">
+        <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B523" s="9"/>
       <c r="C523" s="10"/>
       <c r="D523" s="11"/>
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="15" t="str">
+        <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B524" s="9"/>
       <c r="C524" s="10"/>
       <c r="D524" s="11"/>
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="15" t="str">
+        <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B525" s="9"/>
       <c r="C525" s="10"/>
       <c r="D525" s="11"/>
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="15" t="str">
+        <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B526" s="9"/>
       <c r="C526" s="10"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="15" t="str">
+        <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B527" s="9"/>
       <c r="C527" s="10"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="15" t="str">
+        <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B528" s="9"/>
       <c r="C528" s="10"/>
       <c r="D528" s="11"/>
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="15" t="str">
+        <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B529" s="9"/>
       <c r="C529" s="10"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="15" t="str">
+        <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B530" s="9"/>
       <c r="C530" s="10"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="15" t="str">
+        <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B531" s="9"/>
       <c r="C531" s="10"/>
       <c r="D531" s="11"/>
@@ -4351,26 +6451,26 @@
       <c r="F531" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6Htu7AE61AyFPt67Ql85V/zWz/Q3M9mVOoLwoTAWGtr6H46GleScNnGvnpC0+ZoVZtrj0tHKKhMMqw4OY1QoyQ==" saltValue="mjHEfPDyTi3DEuM+VWg+Qg==" spinCount="100000" sheet="1" insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D531" xr:uid="{286A9366-4079-8F4A-9AB6-501A4911E2F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D531">
       <formula1>$I$2:$N$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -4383,6 +6483,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -4605,34 +6725,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED9B721-9F04-42FA-92BB-349F7C09E886}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331F7075-7740-4BCE-AA8D-475F51DC84BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15D2AA44-81D0-4E48-9E6B-EE6F2A8089D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
+++ b/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
@@ -552,7 +552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -676,7 +676,7 @@
         <v>45251</v>
       </c>
       <c r="C7" s="10">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -6494,15 +6494,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6725,6 +6716,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -6737,14 +6737,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6761,4 +6753,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
+++ b/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -85,9 +85,6 @@
     <t>heures</t>
   </si>
   <si>
-    <t>Nom Prénom</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -101,6 +98,15 @@
   </si>
   <si>
     <t>Préparation, clonage des VMs</t>
+  </si>
+  <si>
+    <t>Création du flowchart, et l'analyse des differents étapes du fonctionalité du script</t>
+  </si>
+  <si>
+    <t>Schafstall Ethan</t>
+  </si>
+  <si>
+    <t>Création de backupa (clones) des VMs, préparation du windows remote managment</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -582,14 +588,14 @@
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>8</v>
@@ -616,16 +622,16 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="13">
-        <v>44927</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -651,10 +657,10 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9">
-        <v>45251</v>
+        <v>45259</v>
       </c>
       <c r="C6" s="10">
         <v>2.0833333333333332E-2</v>
@@ -663,17 +669,17 @@
         <v>11</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="9">
-        <v>45251</v>
+        <v>45259</v>
       </c>
       <c r="C7" s="10">
         <v>6.25E-2</v>
@@ -682,30 +688,46 @@
         <v>9</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>49</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45266</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="str">
-        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="15">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="B9" s="9">
+        <v>45266</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6494,6 +6516,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6716,15 +6747,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -6737,6 +6759,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6753,12 +6783,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
+++ b/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Création de backupa (clones) des VMs, préparation du windows remote managment</t>
+  </si>
+  <si>
+    <t>Travail sur le script</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,7 +625,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>0.17708333333333334</v>
+        <v>0.28194444444444444</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -731,14 +734,22 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="str">
+      <c r="A10" s="15">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45273</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6516,15 +6527,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6747,6 +6749,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -6759,14 +6770,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6783,4 +6786,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
+++ b/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -110,6 +110,27 @@
   </si>
   <si>
     <t>Travail sur le script</t>
+  </si>
+  <si>
+    <t>Malade</t>
+  </si>
+  <si>
+    <t>Traduction du script (en anglais)</t>
+  </si>
+  <si>
+    <t>Fix d'un bug</t>
+  </si>
+  <si>
+    <t>Travail sur présentation</t>
+  </si>
+  <si>
+    <t>Fault de nom de variable</t>
+  </si>
+  <si>
+    <t>Problemes de VM (mac address)</t>
+  </si>
+  <si>
+    <t>Problemes de VM (ping, connectivité)</t>
   </si>
 </sst>
 </file>
@@ -561,7 +582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,7 +646,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>0.28194444444444444</v>
+        <v>0.36875000000000002</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -693,7 +714,9 @@
       <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -731,7 +754,9 @@
       <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -753,47 +778,77 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="str">
+      <c r="A11" s="15">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B11" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="B11" s="9">
+        <v>45280</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="str">
+      <c r="A12" s="15">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="str">
+      <c r="A13" s="15">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>45301</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="15">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B14" s="9">
+        <v>45301</v>
+      </c>
+      <c r="C14" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6527,6 +6582,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6749,15 +6813,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -6770,6 +6825,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6786,12 +6849,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
+++ b/Doc/JNLTRAV/Journal-de-Travail_Schafstall_Ethan.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Problemes de VM (ping, connectivité)</t>
+  </si>
+  <si>
+    <t>Fini présentation</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,7 +649,7 @@
       </c>
       <c r="C3" s="22">
         <f>SUM(C5:C521)</f>
-        <v>0.36875000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -852,14 +855,22 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="str">
+      <c r="A15" s="15">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B15" s="9">
+        <v>45301</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6582,15 +6593,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6813,6 +6815,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -6825,14 +6836,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6849,4 +6852,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>